--- a/006-funcoesBasicas/03-operadoresDeMultiplicacaoDivisao.xlsx
+++ b/006-funcoesBasicas/03-operadoresDeMultiplicacaoDivisao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Imp\Módulo 5 - Funções Básicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge\Desktop\hashtag\hashtagExcel\006-funcoesBasicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCDC45A-1D75-4D27-81F3-3745D10A8043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEB484-A0DF-436B-9DA7-9EC44477C79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8C0B1E5A-D6DF-4E50-8A48-CFF6B05730EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0B1E5A-D6DF-4E50-8A48-CFF6B05730EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -102,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -142,7 +148,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,171 +466,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61902A4C-1238-4B7D-913A-66992EF70C8D}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="3" width="14" customWidth="1"/>
+    <col min="4" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
       <c r="B2" s="2">
         <v>21649</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="8">
+        <f>B2*$C$1</f>
+        <v>43298</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43862</v>
       </c>
       <c r="B3" s="2">
         <v>13864</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8">
+        <f>B3*$C$1</f>
+        <v>27728</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43891</v>
       </c>
       <c r="B4" s="2">
         <v>13348</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="8">
+        <f t="shared" ref="C3:C13" si="0">B4*$C$1</f>
+        <v>26696</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43922</v>
       </c>
       <c r="B5" s="2">
         <v>31259</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="8">
+        <f t="shared" si="0"/>
+        <v>62518</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="5">
+        <f>C4/C1</f>
+        <v>13348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43952</v>
       </c>
       <c r="B6" s="2">
         <v>40330</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="8">
+        <f t="shared" si="0"/>
+        <v>80660</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="7">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43983</v>
       </c>
       <c r="B7" s="2">
         <v>32316</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="8">
+        <f t="shared" si="0"/>
+        <v>64632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44013</v>
       </c>
       <c r="B8" s="2">
         <v>35981</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <f t="shared" si="0"/>
+        <v>71962</v>
+      </c>
+      <c r="G8" s="4">
+        <f>C2+B6*B2</f>
+        <v>873147468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44044</v>
       </c>
       <c r="B9" s="2">
         <v>32155</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>64310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44075</v>
       </c>
       <c r="B10" s="2">
         <v>38220</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <f t="shared" si="0"/>
+        <v>76440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44105</v>
       </c>
       <c r="B11" s="2">
         <v>19730</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="8">
+        <f t="shared" si="0"/>
+        <v>39460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44136</v>
       </c>
       <c r="B12" s="2">
         <v>3848</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>7696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44166</v>
       </c>
       <c r="B13" s="2">
         <v>34224</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="8">
+        <f t="shared" si="0"/>
+        <v>68448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
   </sheetData>
